--- a/biology/Zoologie/Geodiidae/Geodiidae.xlsx
+++ b/biology/Zoologie/Geodiidae/Geodiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Geodiidae forment une famille de spongiaires de l'ordre Tetractinellida. Les Geodiidae regroupent plus de 255 espèces[2] à travers le monde, sauf en Antarctique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Geodiidae forment une famille de spongiaires de l'ordre Tetractinellida. Les Geodiidae regroupent plus de 255 espèces à travers le monde, sauf en Antarctique.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des sous-familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (1 juin 2016)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (1 juin 2016) :
 sous-famille Calthropellinae von Lendenfeld, 1907 (statut temporaire non confirmé)
 sous-famille Erylinae Sollas, 1888
 sous-famille Geodiinae Gray, 1867</t>
@@ -544,9 +558,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (22 avril 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (22 avril 2022) :
 genre Antares Sollas, 1888
 genre Caminella Lendenfeld, 1894
 genre Caminus Schmidt, 1862
